--- a/P10/JADE_Scrum.xlsx
+++ b/P10/JADE_Scrum.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waseem/Documents/SchoolCode/cse1325/P09/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waseem/Documents/SchoolCode/cse1325/P10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740BCAB8-A025-BF47-97F0-63D90B7282E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966421BE-56F1-114C-8A6A-63DEBBEE5605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="310">
   <si>
     <t>Product Name:</t>
   </si>
@@ -826,9 +826,6 @@
     <t>Implement MainWin.onCreateCustomerClick Actionlistener</t>
   </si>
   <si>
-    <t>In Work</t>
-  </si>
-  <si>
     <t>ShowConfirmDialog with array of components to add donut</t>
   </si>
   <si>
@@ -845,6 +842,135 @@
   </si>
   <si>
     <t>Finished in Sprint 4</t>
+  </si>
+  <si>
+    <t>Finished in Sprint 5</t>
+  </si>
+  <si>
+    <t>Create a Server class</t>
+  </si>
+  <si>
+    <t>Create a constructor with name, phone, and parameters</t>
+  </si>
+  <si>
+    <t>Create a constructor with a buffered reader</t>
+  </si>
+  <si>
+    <t>Override the save method</t>
+  </si>
+  <si>
+    <t>Override the toString method</t>
+  </si>
+  <si>
+    <t>implement getSSN method</t>
+  </si>
+  <si>
+    <t>Override euqals method for Product, Donut, and Java</t>
+  </si>
+  <si>
+    <t>Override hashCode method for Product, Donut, and Java</t>
+  </si>
+  <si>
+    <t>Create Order class with nextID(static), id, customer, server, products</t>
+  </si>
+  <si>
+    <t>Create a constructor customer and server</t>
+  </si>
+  <si>
+    <t>implement getID method</t>
+  </si>
+  <si>
+    <t>Implement addProduct method to add a product to products hashmap</t>
+  </si>
+  <si>
+    <t>override save method</t>
+  </si>
+  <si>
+    <t>override toString method</t>
+  </si>
+  <si>
+    <t>Add orders ArrayList to Store.java</t>
+  </si>
+  <si>
+    <t>update BufferedReader constructor to read orders from file</t>
+  </si>
+  <si>
+    <t>update save method to write orders to file</t>
+  </si>
+  <si>
+    <t>addOrder method that adds an order to store</t>
+  </si>
+  <si>
+    <t>numberOfOrders method that returns the number of orders</t>
+  </si>
+  <si>
+    <t>orderToString that returns a string representation of a given order</t>
+  </si>
+  <si>
+    <t>getOrders that returns an array of orders</t>
+  </si>
+  <si>
+    <t>ordersToString that returns a string representation of all orders in the store</t>
+  </si>
+  <si>
+    <t>Create &gt; Order in MainWin</t>
+  </si>
+  <si>
+    <t>Create order button to toolbar MainWin</t>
+  </si>
+  <si>
+    <t>Implement onCreateOrderClick</t>
+  </si>
+  <si>
+    <t>View Orders button to toolbar in MainWin</t>
+  </si>
+  <si>
+    <t>Create &gt; Server in MainWin</t>
+  </si>
+  <si>
+    <t>View &gt; Orders in MainWin</t>
+  </si>
+  <si>
+    <t>Implement viewing orders using updateData method</t>
+  </si>
+  <si>
+    <t>Implement onCreateServerClick</t>
+  </si>
+  <si>
+    <t>Used JFormattedTextField to perform data validation on all phone numbers and ssn</t>
+  </si>
+  <si>
+    <t>JLabel in creae order dialog</t>
+  </si>
+  <si>
+    <t>Store.getProduct method returns an aray of products</t>
+  </si>
+  <si>
+    <t>combo box with available products in new order dialog</t>
+  </si>
+  <si>
+    <t>spinner to select product quantity in new order dialog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">button to add the product to the order in new order dialog </t>
+  </si>
+  <si>
+    <t>scroll pane to contain the order label</t>
+  </si>
+  <si>
+    <t>panel containing the combo box, spinner, and button above in new order dialog</t>
+  </si>
+  <si>
+    <t>Store.getCustomers that returns array of customers</t>
+  </si>
+  <si>
+    <t>combo box with added customers</t>
+  </si>
+  <si>
+    <t>Store.getServers that returns array of Servers (Can't select CSS on dropdown)</t>
+  </si>
+  <si>
+    <t>combo box with added servers (Can't select CSS on dropdown)</t>
   </si>
 </sst>
 </file>
@@ -1333,10 +1459,10 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2559,28 +2685,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>29</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2872,28 +2998,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4374,8 +4500,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="116" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="A30" zoomScale="116" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -4662,11 +4788,11 @@
       </c>
       <c r="B17" s="2">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C17" s="8">
         <f>COUNTIF(F$24:F$67,"Finished in Sprint 5")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="10"/>
@@ -4681,7 +4807,7 @@
       </c>
       <c r="B18" s="2">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C18" s="8">
         <f>COUNTIF(F$24:F$67,"Finished in Sprint 6")</f>
@@ -5109,7 +5235,7 @@
         <v>4</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="G34" s="18" t="s">
         <v>32</v>
@@ -6155,7 +6281,7 @@
         <v>4</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G35" s="18" t="s">
         <v>69</v>
@@ -6181,8 +6307,12 @@
       <c r="D36" s="9">
         <v>3</v>
       </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
+      <c r="E36" s="14">
+        <v>5</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>267</v>
+      </c>
       <c r="G36" s="12" t="s">
         <v>69</v>
       </c>
@@ -6207,8 +6337,12 @@
       <c r="D37" s="9">
         <v>8</v>
       </c>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
+      <c r="E37" s="14">
+        <v>5</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>267</v>
+      </c>
       <c r="G37" s="12" t="s">
         <v>69</v>
       </c>
@@ -6235,8 +6369,12 @@
       <c r="D38" s="9">
         <v>5</v>
       </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
+      <c r="E38" s="14">
+        <v>5</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>267</v>
+      </c>
       <c r="G38" s="12" t="s">
         <v>80</v>
       </c>
@@ -6263,8 +6401,12 @@
       <c r="D39" s="9">
         <v>3</v>
       </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
+      <c r="E39" s="14">
+        <v>5</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>267</v>
+      </c>
       <c r="G39" s="12" t="s">
         <v>80</v>
       </c>
@@ -6291,8 +6433,12 @@
       <c r="D40" s="9">
         <v>8</v>
       </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
+      <c r="E40" s="14">
+        <v>5</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>267</v>
+      </c>
       <c r="G40" s="12" t="s">
         <v>80</v>
       </c>
@@ -6319,8 +6465,12 @@
       <c r="D41" s="9">
         <v>2</v>
       </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
+      <c r="E41" s="14">
+        <v>5</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>267</v>
+      </c>
       <c r="G41" s="12" t="s">
         <v>80</v>
       </c>
@@ -6858,6 +7008,7 @@
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="E22:F22"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="10">
     <dataValidation operator="equal" allowBlank="1" showErrorMessage="1" sqref="B1" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
@@ -10329,8 +10480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView topLeftCell="A32" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="E45" sqref="B45:E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -10434,7 +10585,7 @@
       </c>
       <c r="B7" s="23">
         <f>COUNTA(D17:D995)</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
@@ -10449,7 +10600,7 @@
       </c>
       <c r="B8" s="23">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="23">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
@@ -10467,7 +10618,7 @@
       </c>
       <c r="B9" s="23">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="23">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
@@ -10485,7 +10636,7 @@
       </c>
       <c r="B10" s="23">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="23">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
@@ -10503,7 +10654,7 @@
       </c>
       <c r="B11" s="23">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="23">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -10521,7 +10672,7 @@
       </c>
       <c r="B12" s="23">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="23">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -10539,7 +10690,7 @@
       </c>
       <c r="B13" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="23">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -10557,7 +10708,7 @@
       </c>
       <c r="B14" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="23">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -10943,7 +11094,7 @@
         <v>64</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E41" s="33" t="s">
         <v>188</v>
@@ -10957,7 +11108,7 @@
         <v>64</v>
       </c>
       <c r="D42" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E42" s="33" t="s">
         <v>188</v>
@@ -10971,7 +11122,7 @@
         <v>64</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E43" s="33" t="s">
         <v>188</v>
@@ -10985,7 +11136,7 @@
         <v>64</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E44" s="33" t="s">
         <v>188</v>
@@ -10994,15 +11145,6 @@
     <row r="45" spans="1:5">
       <c r="A45">
         <v>29</v>
-      </c>
-      <c r="B45" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="D45" s="31" t="s">
-        <v>266</v>
-      </c>
-      <c r="E45" s="33" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -11456,12 +11598,12 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Value" error="This cell may only contain a valid status value (hint: use the drop-down selection list) or be left blank (hint: use the Delete key)" promptTitle="Implementation Status" prompt="Leave blank until task is begun._x000a_Select &quot;In Work&quot; when started (for long tasks only)._x000a_Select Completed ONLY when this task is done._x000a_    Select &quot;Completed Day 1&quot; if finished on the first day, and_x000a_    similarly for &quot;Completed on Day 2&quot; et. al." sqref="E17:E100" xr:uid="{00000000-0002-0000-0400-000003000000}">
-      <formula1>"In Work,Completed Day 1,Completed Day 2,Completed Day 3,Completed Day 4,Completed Day 5,Completed Day 6,Completed Day 7,"</formula1>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Task Description" prompt="Select a Feature ID to the left. Then, in this column, list each discrete task needed to implement that feature._x000a__x000a_Example tasks might be &quot;create the Foo class&quot;, &quot;add the Bar method to the (existing) Qux class&quot;, &quot;Find icons for the task bar&quot;, &quot;Update the m" sqref="D18:D25 D31:D37 D40:D44 D46:D100" xr:uid="{00000000-0002-0000-0400-000005000000}">
+      <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Task Description" prompt="Select a Feature ID to the left. Then, in this column, list each discrete task needed to implement that feature._x000a__x000a_Example tasks might be &quot;create the Foo class&quot;, &quot;add the Bar method to the (existing) Qux class&quot;, &quot;Find icons for the task bar&quot;, &quot;Update the m" sqref="D18:D25 D31:D37 D40:D100" xr:uid="{00000000-0002-0000-0400-000005000000}">
-      <formula1>0</formula1>
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Value" error="This cell may only contain a valid status value (hint: use the drop-down selection list) or be left blank (hint: use the Delete key)" promptTitle="Implementation Status" prompt="Leave blank until task is begun._x000a_Select &quot;In Work&quot; when started (for long tasks only)._x000a_Select Completed ONLY when this task is done._x000a_    Select &quot;Completed Day 1&quot; if finished on the first day, and_x000a_    similarly for &quot;Completed on Day 2&quot; et. al." sqref="E17:E44 E46:E100" xr:uid="{00000000-0002-0000-0400-000003000000}">
+      <formula1>"In Work,Completed Day 1,Completed Day 2,Completed Day 3,Completed Day 4,Completed Day 5,Completed Day 6,Completed Day 7,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -11482,7 +11624,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>B17:B100</xm:sqref>
+          <xm:sqref>B17:B44 B46:B100</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Feature ID from Product Backlog" prompt="Exactly ONE team member may be responsible for any task, and they will receive grade credit for their work._x000a__x000a_If you have more than one person on your team, each member MUST select their initials for each task the agree to perform. Use this to ensure that " xr:uid="{00000000-0002-0000-0400-000002000000}">
           <x14:formula1>
@@ -11491,7 +11633,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>C17:C100</xm:sqref>
+          <xm:sqref>C17:C44 C46:C100</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11503,8 +11645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -11609,7 +11751,7 @@
       </c>
       <c r="B7" s="23">
         <f>COUNTA(D17:D995)</f>
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
@@ -11624,11 +11766,11 @@
       </c>
       <c r="B8" s="23">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C8" s="23">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
@@ -11642,11 +11784,11 @@
       </c>
       <c r="B9" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C9" s="23">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
@@ -11660,11 +11802,11 @@
       </c>
       <c r="B10" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C10" s="23">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
@@ -11678,7 +11820,7 @@
       </c>
       <c r="B11" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C11" s="23">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -11696,11 +11838,11 @@
       </c>
       <c r="B12" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C12" s="23">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
@@ -11714,7 +11856,7 @@
       </c>
       <c r="B13" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C13" s="23">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -11732,7 +11874,7 @@
       </c>
       <c r="B14" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C14" s="23">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -11778,330 +11920,516 @@
       <c r="A17">
         <v>1</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="D17" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="E17" s="33"/>
+      <c r="B17" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
         <v>2</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="33"/>
+      <c r="B18" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
         <v>3</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="33"/>
+      <c r="B19" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
         <v>4</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="33"/>
+      <c r="B20" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
         <v>5</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="33"/>
+      <c r="B21" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
         <v>6</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="33"/>
+      <c r="B22" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
         <v>7</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="33"/>
+      <c r="B23" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
         <v>8</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="33"/>
+      <c r="B24" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
         <v>9</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="33"/>
+      <c r="B25" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
         <v>10</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="D26" s="31"/>
+      <c r="B26" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>274</v>
+      </c>
       <c r="E26" s="33"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
         <v>11</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="D27" s="31"/>
+      <c r="B27" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>275</v>
+      </c>
       <c r="E27" s="33"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
         <v>12</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="D28" s="31"/>
+      <c r="B28" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>276</v>
+      </c>
       <c r="E28" s="33"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
         <v>13</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="D29" s="31"/>
+      <c r="B29" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>277</v>
+      </c>
       <c r="E29" s="33"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
         <v>14</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="D30" s="31"/>
+      <c r="B30" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>278</v>
+      </c>
       <c r="E30" s="33"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
         <v>15</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="D31" s="31"/>
+      <c r="B31" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>279</v>
+      </c>
       <c r="E31" s="33"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
         <v>16</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="D32" s="31"/>
+      <c r="B32" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>280</v>
+      </c>
       <c r="E32" s="33"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
         <v>17</v>
       </c>
-      <c r="B33" s="31"/>
-      <c r="D33" s="31"/>
+      <c r="B33" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>281</v>
+      </c>
       <c r="E33" s="33"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
         <v>18</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="D34" s="31"/>
+      <c r="B34" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>282</v>
+      </c>
       <c r="E34" s="33"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
         <v>19</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="D35" s="31"/>
+      <c r="B35" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>283</v>
+      </c>
       <c r="E35" s="33"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
         <v>20</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="D36" s="31"/>
+      <c r="B36" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>284</v>
+      </c>
       <c r="E36" s="33"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
         <v>21</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="D37" s="31"/>
+      <c r="B37" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>285</v>
+      </c>
       <c r="E37" s="33"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
         <v>22</v>
       </c>
-      <c r="B38" s="31"/>
-      <c r="D38" s="31"/>
+      <c r="B38" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>286</v>
+      </c>
       <c r="E38" s="33"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
         <v>23</v>
       </c>
-      <c r="B39" s="31"/>
-      <c r="D39" s="31"/>
+      <c r="B39" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>287</v>
+      </c>
       <c r="E39" s="33"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
         <v>24</v>
       </c>
-      <c r="B40" s="31"/>
-      <c r="D40" s="31"/>
+      <c r="B40" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>288</v>
+      </c>
       <c r="E40" s="33"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
         <v>25</v>
       </c>
-      <c r="B41" s="31"/>
-      <c r="D41" s="31"/>
+      <c r="B41" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>289</v>
+      </c>
       <c r="E41" s="33"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
         <v>26</v>
       </c>
-      <c r="B42" s="31"/>
-      <c r="D42" s="31"/>
+      <c r="B42" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>290</v>
+      </c>
       <c r="E42" s="33"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
         <v>27</v>
       </c>
-      <c r="B43" s="31"/>
-      <c r="D43" s="31"/>
+      <c r="B43" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>291</v>
+      </c>
       <c r="E43" s="33"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
         <v>28</v>
       </c>
-      <c r="B44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="33"/>
+      <c r="B44" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="E44" s="33" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
         <v>29</v>
       </c>
-      <c r="B45" s="31"/>
-      <c r="D45" s="31"/>
+      <c r="B45" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>295</v>
+      </c>
       <c r="E45" s="33"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
         <v>30</v>
       </c>
-      <c r="B46" s="31"/>
-      <c r="D46" s="31"/>
+      <c r="B46" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>293</v>
+      </c>
       <c r="E46" s="33"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
         <v>31</v>
       </c>
-      <c r="B47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="33"/>
+      <c r="B47" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="E47" s="33" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
         <v>32</v>
       </c>
-      <c r="B48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="33"/>
+      <c r="B48" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="E48" s="33" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
         <v>33</v>
       </c>
-      <c r="B49" s="31"/>
-      <c r="D49" s="31"/>
+      <c r="B49" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="E49" s="33"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
         <v>34</v>
       </c>
-      <c r="B50" s="31"/>
-      <c r="D50" s="31"/>
+      <c r="B50" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50" s="31" t="s">
+        <v>300</v>
+      </c>
       <c r="E50" s="33"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
         <v>35</v>
       </c>
-      <c r="B51" s="31"/>
-      <c r="D51" s="31"/>
+      <c r="B51" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" s="31" t="s">
+        <v>301</v>
+      </c>
       <c r="E51" s="33"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
         <v>36</v>
       </c>
-      <c r="B52" s="31"/>
-      <c r="D52" s="31"/>
+      <c r="B52" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" s="31" t="s">
+        <v>302</v>
+      </c>
       <c r="E52" s="33"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
         <v>37</v>
       </c>
-      <c r="B53" s="31"/>
-      <c r="D53" s="31"/>
+      <c r="B53" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D53" s="31" t="s">
+        <v>303</v>
+      </c>
       <c r="E53" s="33"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
         <v>38</v>
       </c>
-      <c r="B54" s="31"/>
-      <c r="D54" s="31"/>
+      <c r="B54" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" s="31" t="s">
+        <v>304</v>
+      </c>
       <c r="E54" s="33"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
         <v>39</v>
       </c>
-      <c r="B55" s="31"/>
-      <c r="D55" s="31"/>
+      <c r="B55" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" s="31" t="s">
+        <v>305</v>
+      </c>
       <c r="E55" s="33"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
         <v>40</v>
       </c>
-      <c r="B56" s="31"/>
-      <c r="D56" s="31"/>
+      <c r="B56" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D56" s="31" t="s">
+        <v>306</v>
+      </c>
       <c r="E56" s="33"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
         <v>41</v>
       </c>
-      <c r="B57" s="31"/>
-      <c r="D57" s="31"/>
+      <c r="B57" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D57" s="31" t="s">
+        <v>307</v>
+      </c>
       <c r="E57" s="33"/>
     </row>
     <row r="58" spans="1:5">
@@ -12109,7 +12437,9 @@
         <v>42</v>
       </c>
       <c r="B58" s="31"/>
-      <c r="D58" s="31"/>
+      <c r="D58" s="31" t="s">
+        <v>308</v>
+      </c>
       <c r="E58" s="33"/>
     </row>
     <row r="59" spans="1:5">
@@ -12117,7 +12447,9 @@
         <v>43</v>
       </c>
       <c r="B59" s="31"/>
-      <c r="D59" s="31"/>
+      <c r="D59" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="E59" s="33"/>
     </row>
     <row r="60" spans="1:5">
@@ -12449,21 +12781,22 @@
       <c r="E100" s="33"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Task ID" prompt="This is just an arbitrary unique (per sprint) integer assigned to a task, used by the team to refer to that task. " sqref="A17:A100" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Value" error="This cell may only contain a valid status value (hint: use the drop-down selection list) or be left blank (hint: use the Delete key)" promptTitle="Implementation Status" prompt="Leave blank until task is begun._x000a_Select &quot;In Work&quot; when started (for long tasks only)._x000a_Select Completed ONLY when this task is done._x000a_    Select &quot;Completed Day 1&quot; if finished on the first day, and_x000a_    similarly for &quot;Completed on Day 2&quot; et. al." sqref="E17:E100" xr:uid="{00000000-0002-0000-0500-000003000000}">
-      <formula1>"In Work,Completed Day 1,Completed Day 2,Completed Day 3,Completed Day 4,Completed Day 5,Completed Day 6,Completed Day 7,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OPTIONAL" prompt="You may add any notes here that help understand the requirements and scope for this task" sqref="F17:F100" xr:uid="{00000000-0002-0000-0500-000004000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Task Description" prompt="Select a Feature ID to the left. Then, in this column, list each discrete task needed to implement that feature._x000a__x000a_Example tasks might be &quot;create the Foo class&quot;, &quot;add the Bar method to the (existing) Qux class&quot;, &quot;Find icons for the task bar&quot;, &quot;Update the m" sqref="D18:D100" xr:uid="{00000000-0002-0000-0500-000005000000}">
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Task Description" prompt="Select a Feature ID to the left. Then, in this column, list each discrete task needed to implement that feature._x000a__x000a_Example tasks might be &quot;create the Foo class&quot;, &quot;add the Bar method to the (existing) Qux class&quot;, &quot;Find icons for the task bar&quot;, &quot;Update the m" sqref="D17:D23 D26:D47 D49:D100" xr:uid="{00000000-0002-0000-0500-000005000000}">
       <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Value" error="This cell may only contain a valid status value (hint: use the drop-down selection list) or be left blank (hint: use the Delete key)" promptTitle="Implementation Status" prompt="Leave blank until task is begun._x000a_Select &quot;In Work&quot; when started (for long tasks only)._x000a_Select Completed ONLY when this task is done._x000a_    Select &quot;Completed Day 1&quot; if finished on the first day, and_x000a_    similarly for &quot;Completed on Day 2&quot; et. al." sqref="E17:E100" xr:uid="{00000000-0002-0000-0500-000003000000}">
+      <formula1>"In Work,Completed Day 1,Completed Day 2,Completed Day 3,Completed Day 4,Completed Day 5,Completed Day 6,Completed Day 7,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -12493,7 +12826,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>C17:C100</xm:sqref>
+          <xm:sqref>C17:C24 C26:C100</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/P10/JADE_Scrum.xlsx
+++ b/P10/JADE_Scrum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waseem/Documents/SchoolCode/cse1325/P10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966421BE-56F1-114C-8A6A-63DEBBEE5605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AC2982-21AE-4642-B9AD-E28A76A0A772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="310">
   <si>
     <t>Product Name:</t>
   </si>
@@ -883,18 +883,9 @@
     <t>Implement addProduct method to add a product to products hashmap</t>
   </si>
   <si>
-    <t>override save method</t>
-  </si>
-  <si>
-    <t>override toString method</t>
-  </si>
-  <si>
     <t>Add orders ArrayList to Store.java</t>
   </si>
   <si>
-    <t>update BufferedReader constructor to read orders from file</t>
-  </si>
-  <si>
     <t>update save method to write orders to file</t>
   </si>
   <si>
@@ -940,9 +931,6 @@
     <t>Used JFormattedTextField to perform data validation on all phone numbers and ssn</t>
   </si>
   <si>
-    <t>JLabel in creae order dialog</t>
-  </si>
-  <si>
     <t>Store.getProduct method returns an aray of products</t>
   </si>
   <si>
@@ -971,6 +959,18 @@
   </si>
   <si>
     <t>combo box with added servers (Can't select CSS on dropdown)</t>
+  </si>
+  <si>
+    <t>Implement Order.save method</t>
+  </si>
+  <si>
+    <t>override Order.toString method</t>
+  </si>
+  <si>
+    <t>update Store BufferedReader constructor to read orders from file</t>
+  </si>
+  <si>
+    <t>JLabel in create order dialog</t>
   </si>
 </sst>
 </file>
@@ -3013,13 +3013,13 @@
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4500,8 +4500,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ62"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="116" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView zoomScale="116" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -10480,7 +10480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView topLeftCell="A23" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="E45" sqref="B45:E45"/>
     </sheetView>
   </sheetViews>
@@ -11645,8 +11645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -11838,11 +11838,11 @@
       </c>
       <c r="B12" s="23">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="C12" s="23">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
@@ -11856,11 +11856,11 @@
       </c>
       <c r="B13" s="23">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C13" s="23">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
@@ -11874,7 +11874,7 @@
       </c>
       <c r="B14" s="23">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C14" s="23">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -12022,7 +12022,7 @@
         <v>72</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E24" s="33" t="s">
         <v>197</v>
@@ -12036,7 +12036,7 @@
         <v>72</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E25" s="33" t="s">
         <v>197</v>
@@ -12052,7 +12052,9 @@
       <c r="D26" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="E26" s="33"/>
+      <c r="E26" s="33" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
@@ -12064,7 +12066,9 @@
       <c r="D27" s="31" t="s">
         <v>275</v>
       </c>
-      <c r="E27" s="33"/>
+      <c r="E27" s="33" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
@@ -12076,7 +12080,9 @@
       <c r="D28" s="31" t="s">
         <v>276</v>
       </c>
-      <c r="E28" s="33"/>
+      <c r="E28" s="33" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
@@ -12088,7 +12094,9 @@
       <c r="D29" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="E29" s="33"/>
+      <c r="E29" s="33" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
@@ -12100,7 +12108,9 @@
       <c r="D30" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="E30" s="33"/>
+      <c r="E30" s="33" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
@@ -12112,7 +12122,9 @@
       <c r="D31" s="31" t="s">
         <v>279</v>
       </c>
-      <c r="E31" s="33"/>
+      <c r="E31" s="33" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
@@ -12122,9 +12134,11 @@
         <v>75</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>280</v>
-      </c>
-      <c r="E32" s="33"/>
+        <v>306</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
@@ -12134,9 +12148,11 @@
         <v>75</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>281</v>
-      </c>
-      <c r="E33" s="33"/>
+        <v>307</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
@@ -12146,9 +12162,11 @@
         <v>75</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>282</v>
-      </c>
-      <c r="E34" s="33"/>
+        <v>280</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
@@ -12158,9 +12176,11 @@
         <v>75</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>283</v>
-      </c>
-      <c r="E35" s="33"/>
+        <v>308</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
@@ -12170,9 +12190,11 @@
         <v>75</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>284</v>
-      </c>
-      <c r="E36" s="33"/>
+        <v>281</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
@@ -12182,9 +12204,11 @@
         <v>75</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>285</v>
-      </c>
-      <c r="E37" s="33"/>
+        <v>282</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
@@ -12194,9 +12218,11 @@
         <v>75</v>
       </c>
       <c r="D38" s="31" t="s">
-        <v>286</v>
-      </c>
-      <c r="E38" s="33"/>
+        <v>283</v>
+      </c>
+      <c r="E38" s="33" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
@@ -12206,9 +12232,11 @@
         <v>75</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>287</v>
-      </c>
-      <c r="E39" s="33"/>
+        <v>284</v>
+      </c>
+      <c r="E39" s="33" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
@@ -12218,9 +12246,11 @@
         <v>75</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>288</v>
-      </c>
-      <c r="E40" s="33"/>
+        <v>285</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
@@ -12230,9 +12260,11 @@
         <v>75</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>289</v>
-      </c>
-      <c r="E41" s="33"/>
+        <v>286</v>
+      </c>
+      <c r="E41" s="33" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
@@ -12242,9 +12274,11 @@
         <v>75</v>
       </c>
       <c r="D42" s="31" t="s">
-        <v>290</v>
-      </c>
-      <c r="E42" s="33"/>
+        <v>287</v>
+      </c>
+      <c r="E42" s="33" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
@@ -12254,9 +12288,11 @@
         <v>75</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>291</v>
-      </c>
-      <c r="E43" s="33"/>
+        <v>288</v>
+      </c>
+      <c r="E43" s="33" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
@@ -12266,7 +12302,7 @@
         <v>75</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E44" s="33" t="s">
         <v>199</v>
@@ -12280,9 +12316,11 @@
         <v>75</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>295</v>
-      </c>
-      <c r="E45" s="33"/>
+        <v>292</v>
+      </c>
+      <c r="E45" s="33" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
@@ -12292,9 +12330,11 @@
         <v>75</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>293</v>
-      </c>
-      <c r="E46" s="33"/>
+        <v>290</v>
+      </c>
+      <c r="E46" s="33" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
@@ -12304,7 +12344,7 @@
         <v>75</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E47" s="33" t="s">
         <v>199</v>
@@ -12318,7 +12358,7 @@
         <v>72</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E48" s="33" t="s">
         <v>199</v>
@@ -12332,9 +12372,11 @@
         <v>84</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>299</v>
-      </c>
-      <c r="E49" s="33"/>
+        <v>309</v>
+      </c>
+      <c r="E49" s="33" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
@@ -12344,9 +12386,11 @@
         <v>79</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>300</v>
-      </c>
-      <c r="E50" s="33"/>
+        <v>296</v>
+      </c>
+      <c r="E50" s="33" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
@@ -12356,9 +12400,11 @@
         <v>79</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>301</v>
-      </c>
-      <c r="E51" s="33"/>
+        <v>297</v>
+      </c>
+      <c r="E51" s="33" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
@@ -12368,9 +12414,11 @@
         <v>79</v>
       </c>
       <c r="D52" s="31" t="s">
-        <v>302</v>
-      </c>
-      <c r="E52" s="33"/>
+        <v>298</v>
+      </c>
+      <c r="E52" s="33" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
@@ -12380,9 +12428,11 @@
         <v>79</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>303</v>
-      </c>
-      <c r="E53" s="33"/>
+        <v>299</v>
+      </c>
+      <c r="E53" s="33" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
@@ -12392,9 +12442,11 @@
         <v>79</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>304</v>
-      </c>
-      <c r="E54" s="33"/>
+        <v>300</v>
+      </c>
+      <c r="E54" s="33" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
@@ -12404,9 +12456,11 @@
         <v>79</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>305</v>
-      </c>
-      <c r="E55" s="33"/>
+        <v>301</v>
+      </c>
+      <c r="E55" s="33" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
@@ -12416,9 +12470,11 @@
         <v>88</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>306</v>
-      </c>
-      <c r="E56" s="33"/>
+        <v>302</v>
+      </c>
+      <c r="E56" s="33" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
@@ -12428,9 +12484,11 @@
         <v>88</v>
       </c>
       <c r="D57" s="31" t="s">
-        <v>307</v>
-      </c>
-      <c r="E57" s="33"/>
+        <v>303</v>
+      </c>
+      <c r="E57" s="33" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
@@ -12438,9 +12496,11 @@
       </c>
       <c r="B58" s="31"/>
       <c r="D58" s="31" t="s">
-        <v>308</v>
-      </c>
-      <c r="E58" s="33"/>
+        <v>304</v>
+      </c>
+      <c r="E58" s="33" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
@@ -12448,9 +12508,11 @@
       </c>
       <c r="B59" s="31"/>
       <c r="D59" s="31" t="s">
-        <v>309</v>
-      </c>
-      <c r="E59" s="33"/>
+        <v>305</v>
+      </c>
+      <c r="E59" s="33" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
